--- a/JavaScript 02 (DOM & UI)/JavaScript-UI-and-DOM-course-program.xlsx
+++ b/JavaScript 02 (DOM & UI)/JavaScript-UI-and-DOM-course-program.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>#</t>
   </si>
@@ -116,12 +118,40 @@
   </si>
   <si>
     <t>16-19 Jun</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>16-20 Jun</t>
+  </si>
+  <si>
+    <t>Document Object Model</t>
+  </si>
+  <si>
+    <t>SVG and RaphaelJS</t>
+  </si>
+  <si>
+    <t>Animations with 
+Canvas and SVG</t>
+  </si>
+  <si>
+    <t>Kinect JS Overview</t>
+  </si>
+  <si>
+    <t>HTML5 Canvas</t>
+  </si>
+  <si>
+    <t>Teamwork Defense</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="ddd\ hh:mm\,\ dd/mmm/yyyy"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -139,7 +169,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,6 +191,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -218,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -247,16 +289,46 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -565,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,7 +648,8 @@
     <col min="3" max="3" width="4.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="48.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -615,10 +688,10 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="10">
-        <v>41787</v>
+        <v>41787.75</v>
       </c>
       <c r="G3" s="10">
-        <v>41788</v>
+        <v>41788.583333333336</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>23</v>
@@ -638,10 +711,10 @@
         <v>11</v>
       </c>
       <c r="F4" s="10">
-        <v>41787</v>
+        <v>41787.75</v>
       </c>
       <c r="G4" s="10">
-        <v>41788</v>
+        <v>41788.583333333336</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>26</v>
@@ -661,10 +734,10 @@
         <v>14</v>
       </c>
       <c r="F5" s="11">
-        <v>41788</v>
+        <v>41788.75</v>
       </c>
       <c r="G5" s="11">
-        <v>41789</v>
+        <v>41789.583333333336</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>27</v>
@@ -684,10 +757,10 @@
         <v>15</v>
       </c>
       <c r="F6" s="11">
-        <v>41788</v>
+        <v>41788.75</v>
       </c>
       <c r="G6" s="11">
-        <v>41789</v>
+        <v>41789.583333333336</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>27</v>
@@ -707,10 +780,10 @@
         <v>32</v>
       </c>
       <c r="F7" s="10">
-        <v>41763</v>
+        <v>41794.75</v>
       </c>
       <c r="G7" s="10">
-        <v>41795</v>
+        <v>41795.583333333336</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>27</v>
@@ -730,10 +803,10 @@
         <v>6</v>
       </c>
       <c r="F8" s="10">
-        <v>41763</v>
+        <v>41794.75</v>
       </c>
       <c r="G8" s="10">
-        <v>41795</v>
+        <v>41795.583333333336</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>24</v>
@@ -753,10 +826,10 @@
         <v>13</v>
       </c>
       <c r="F9" s="11">
-        <v>41795</v>
+        <v>41795.75</v>
       </c>
       <c r="G9" s="11">
-        <v>41796</v>
+        <v>41796.583333333336</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>24</v>
@@ -776,10 +849,10 @@
         <v>9</v>
       </c>
       <c r="F10" s="11">
-        <v>41795</v>
+        <v>41795.75</v>
       </c>
       <c r="G10" s="11">
-        <v>41796</v>
+        <v>41796.583333333336</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>24</v>
@@ -799,10 +872,10 @@
         <v>10</v>
       </c>
       <c r="F11" s="10">
-        <v>41801</v>
+        <v>41801.75</v>
       </c>
       <c r="G11" s="10">
-        <v>41802</v>
+        <v>41802.583333333336</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>24</v>
@@ -822,10 +895,10 @@
         <v>16</v>
       </c>
       <c r="F12" s="10">
-        <v>41801</v>
+        <v>41801.75</v>
       </c>
       <c r="G12" s="10">
-        <v>41802</v>
+        <v>41802.583333333336</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>25</v>
@@ -843,10 +916,10 @@
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="11">
-        <v>41802</v>
+        <v>41802.75</v>
       </c>
       <c r="G13" s="11">
-        <v>41803</v>
+        <v>41803.583333333336</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>27</v>
@@ -863,10 +936,10 @@
         <v>30</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="13"/>
+      <c r="G14" s="19"/>
       <c r="H14" s="5" t="s">
         <v>27</v>
       </c>
@@ -878,4 +951,229 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="21">
+        <v>41787.75</v>
+      </c>
+      <c r="D2" s="21">
+        <v>41788.583333333336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="21">
+        <v>41788.75</v>
+      </c>
+      <c r="D4" s="21">
+        <v>41789.583333333336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>4</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="21">
+        <v>41794.75</v>
+      </c>
+      <c r="D6" s="21">
+        <v>41795.583333333336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="21">
+        <v>41795.75</v>
+      </c>
+      <c r="D8" s="21">
+        <v>41796.583333333336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>7</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>8</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="21">
+        <v>41801.75</v>
+      </c>
+      <c r="D10" s="21">
+        <v>41802.583333333336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>9</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>10</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="12">
+        <v>41802.75</v>
+      </c>
+      <c r="D12" s="12">
+        <v>41803.583333333336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="23"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>12</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="20"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C13:D13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>